--- a/jpcore-r4/feature/注射カテゴリ追加/StructureDefinition-jp-medicationdispense-injection.xlsx
+++ b/jpcore-r4/feature/注射カテゴリ追加/StructureDefinition-jp-medicationdispense-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2555" uniqueCount="470">
   <si>
     <t>Property</t>
   </si>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -856,6 +856,71 @@
   </si>
   <si>
     <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication dispense"].value</t>
+  </si>
+  <si>
+    <t>MedicationDispense.category.id</t>
+  </si>
+  <si>
+    <t>MedicationDispense.category.extension</t>
+  </si>
+  <si>
+    <t>MedicationDispense.category.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationFeeScoreCategory_CS"/&gt;
+  &lt;code value="injection"/&gt;
+  &lt;display value="注射"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>MedicationDispense.category.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>MedicationDispense.medication[x]</t>
@@ -1773,7 +1838,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN66"/>
+  <dimension ref="A1:AN70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5714,7 +5779,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>86</v>
@@ -5726,20 +5791,18 @@
         <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>272</v>
+        <v>165</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>273</v>
+        <v>166</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>78</v>
@@ -5776,20 +5839,22 @@
         <v>78</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AB35" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AC35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>271</v>
+        <v>168</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>86</v>
@@ -5798,40 +5863,38 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>278</v>
+        <v>78</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>279</v>
+        <v>169</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>282</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>78</v>
@@ -5840,19 +5903,19 @@
         <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>284</v>
+        <v>131</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>273</v>
+        <v>171</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>274</v>
+        <v>172</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>275</v>
+        <v>147</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5890,51 +5953,51 @@
         <v>78</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>278</v>
+        <v>78</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>279</v>
+        <v>169</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>282</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5942,10 +6005,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>78</v>
@@ -5957,18 +6020,20 @@
         <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>78</v>
       </c>
@@ -5977,7 +6042,7 @@
         <v>78</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>78</v>
@@ -6016,13 +6081,13 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>78</v>
@@ -6031,24 +6096,24 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>292</v>
+        <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6068,21 +6133,23 @@
         <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>295</v>
+        <v>165</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>78</v>
       </c>
@@ -6130,7 +6197,7 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6145,10 +6212,10 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>298</v>
+        <v>78</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>78</v>
@@ -6157,12 +6224,12 @@
         <v>78</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>78</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6170,10 +6237,10 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>78</v>
@@ -6182,19 +6249,19 @@
         <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6232,25 +6299,23 @@
         <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="AB39" s="2"/>
       <c r="AC39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>78</v>
+        <v>297</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>78</v>
@@ -6259,35 +6324,37 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>78</v>
+        <v>298</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>78</v>
+        <v>301</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>78</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="C40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>78</v>
@@ -6296,18 +6363,20 @@
         <v>78</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>78</v>
@@ -6356,13 +6425,13 @@
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>78</v>
@@ -6371,24 +6440,24 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>78</v>
+        <v>300</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>78</v>
+        <v>301</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>78</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6396,7 +6465,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>86</v>
@@ -6408,18 +6477,20 @@
         <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>165</v>
+        <v>306</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>166</v>
+        <v>307</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>78</v>
@@ -6468,7 +6539,7 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>168</v>
+        <v>305</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
@@ -6480,38 +6551,38 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>78</v>
+        <v>312</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>78</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>78</v>
@@ -6523,16 +6594,16 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>131</v>
+        <v>315</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>171</v>
+        <v>316</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>172</v>
+        <v>317</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>147</v>
+        <v>309</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6582,25 +6653,25 @@
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>174</v>
+        <v>314</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>78</v>
+        <v>318</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>169</v>
+        <v>319</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>78</v>
@@ -6614,11 +6685,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6631,26 +6702,24 @@
         <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>131</v>
+        <v>321</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>78</v>
       </c>
@@ -6698,7 +6767,7 @@
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -6710,16 +6779,16 @@
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>129</v>
+        <v>324</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>78</v>
+        <v>325</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
@@ -6730,7 +6799,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6741,7 +6810,7 @@
         <v>79</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>78</v>
@@ -6753,18 +6822,16 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>186</v>
+        <v>327</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>322</v>
-      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>78</v>
       </c>
@@ -6788,13 +6855,13 @@
         <v>78</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>324</v>
+        <v>78</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>78</v>
@@ -6812,13 +6879,13 @@
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>78</v>
@@ -6827,10 +6894,10 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>78</v>
@@ -6844,7 +6911,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6852,7 +6919,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>86</v>
@@ -6867,13 +6934,13 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>327</v>
+        <v>165</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>328</v>
+        <v>166</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>329</v>
+        <v>167</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6924,10 +6991,10 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>326</v>
+        <v>168</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>86</v>
@@ -6936,13 +7003,13 @@
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>330</v>
+        <v>78</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>331</v>
+        <v>169</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>78</v>
@@ -6956,18 +7023,18 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>78</v>
@@ -6979,16 +7046,16 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>333</v>
+        <v>131</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>334</v>
+        <v>171</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>335</v>
+        <v>172</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>289</v>
+        <v>147</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7038,25 +7105,25 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>332</v>
+        <v>174</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>336</v>
+        <v>169</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>78</v>
@@ -7070,11 +7137,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>78</v>
+        <v>335</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7087,24 +7154,26 @@
         <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>338</v>
+        <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7152,7 +7221,7 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7164,27 +7233,27 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>342</v>
+        <v>78</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>343</v>
+        <v>129</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>344</v>
+        <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>345</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7210,15 +7279,15 @@
         <v>186</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7245,10 +7314,10 @@
         <v>259</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>78</v>
@@ -7266,7 +7335,7 @@
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
@@ -7284,21 +7353,21 @@
         <v>78</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>353</v>
+        <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>354</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7321,17 +7390,15 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>78</v>
@@ -7380,25 +7447,25 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>360</v>
+        <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>78</v>
+        <v>350</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>78</v>
@@ -7407,12 +7474,12 @@
         <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>362</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7435,16 +7502,16 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>359</v>
+        <v>309</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7494,7 +7561,7 @@
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -7503,16 +7570,16 @@
         <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>360</v>
+        <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>78</v>
@@ -7521,12 +7588,12 @@
         <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>362</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7537,7 +7604,7 @@
         <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>78</v>
@@ -7546,18 +7613,20 @@
         <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>78</v>
@@ -7606,13 +7675,13 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>78</v>
@@ -7621,24 +7690,24 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>78</v>
+        <v>362</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7646,7 +7715,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>86</v>
@@ -7661,15 +7730,17 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="K52" t="s" s="2">
-        <v>374</v>
-      </c>
       <c r="L52" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>78</v>
@@ -7694,13 +7765,13 @@
         <v>78</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>78</v>
+        <v>370</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>78</v>
+        <v>371</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>78</v>
@@ -7718,7 +7789,7 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -7733,24 +7804,24 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>376</v>
+        <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7758,7 +7829,7 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>86</v>
@@ -7773,16 +7844,16 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7832,7 +7903,7 @@
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
@@ -7841,10 +7912,10 @@
         <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>98</v>
+        <v>380</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>78</v>
@@ -7856,15 +7927,15 @@
         <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>383</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7875,7 +7946,7 @@
         <v>79</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>78</v>
@@ -7887,16 +7958,16 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="K54" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>387</v>
-      </c>
       <c r="M54" t="s" s="2">
-        <v>289</v>
+        <v>379</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7946,39 +8017,39 @@
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>98</v>
+        <v>380</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>389</v>
+        <v>78</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>78</v>
+        <v>382</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7989,7 +8060,7 @@
         <v>79</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>78</v>
@@ -7998,20 +8069,18 @@
         <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>78</v>
@@ -8060,13 +8129,13 @@
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>78</v>
@@ -8075,24 +8144,24 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>395</v>
+        <v>78</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>78</v>
+        <v>391</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8100,10 +8169,10 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>78</v>
@@ -8115,17 +8184,15 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>78</v>
@@ -8174,13 +8241,13 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>78</v>
@@ -8189,24 +8256,24 @@
         <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>78</v>
+        <v>396</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>78</v>
+        <v>391</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>78</v>
+        <v>392</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8229,15 +8296,17 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>307</v>
+        <v>353</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>78</v>
@@ -8286,7 +8355,7 @@
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
@@ -8304,21 +8373,21 @@
         <v>78</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>78</v>
+        <v>403</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8329,7 +8398,7 @@
         <v>79</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>78</v>
@@ -8341,15 +8410,17 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>165</v>
+        <v>405</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>166</v>
+        <v>406</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>78</v>
@@ -8398,31 +8469,31 @@
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>168</v>
+        <v>404</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>169</v>
+        <v>408</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>78</v>
+        <v>409</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -8430,11 +8501,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8453,16 +8524,16 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>131</v>
+        <v>411</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>171</v>
+        <v>412</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>172</v>
+        <v>413</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>147</v>
+        <v>414</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8512,7 +8583,7 @@
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
@@ -8524,13 +8595,13 @@
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>78</v>
+        <v>415</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>169</v>
+        <v>416</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>78</v>
@@ -8539,16 +8610,16 @@
         <v>78</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>78</v>
+        <v>417</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8561,26 +8632,24 @@
         <v>78</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>131</v>
+        <v>419</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>316</v>
+        <v>420</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>317</v>
+        <v>420</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>78</v>
       </c>
@@ -8628,7 +8697,7 @@
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>318</v>
+        <v>418</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
@@ -8640,13 +8709,13 @@
         <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>129</v>
+        <v>422</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>78</v>
@@ -8660,7 +8729,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8668,7 +8737,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>86</v>
@@ -8683,13 +8752,13 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>412</v>
+        <v>327</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8740,10 +8809,10 @@
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>86</v>
@@ -8758,13 +8827,13 @@
         <v>78</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>78</v>
+        <v>427</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
@@ -8772,7 +8841,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8795,17 +8864,15 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>417</v>
+        <v>166</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>78</v>
@@ -8830,13 +8897,13 @@
         <v>78</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>420</v>
+        <v>78</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>421</v>
+        <v>78</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>78</v>
@@ -8854,7 +8921,7 @@
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>416</v>
+        <v>168</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
@@ -8866,31 +8933,31 @@
         <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>352</v>
+        <v>169</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>422</v>
+        <v>78</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>423</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8909,16 +8976,16 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>425</v>
+        <v>171</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>426</v>
+        <v>172</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>349</v>
+        <v>147</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8944,13 +9011,13 @@
         <v>78</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>427</v>
+        <v>78</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>428</v>
+        <v>78</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>78</v>
@@ -8968,7 +9035,7 @@
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>424</v>
+        <v>174</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
@@ -8980,19 +9047,19 @@
         <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>429</v>
+        <v>169</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>430</v>
+        <v>78</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9000,11 +9067,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>78</v>
+        <v>335</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9017,24 +9084,26 @@
         <v>78</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>432</v>
+        <v>131</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>433</v>
+        <v>336</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>434</v>
+        <v>337</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>78</v>
       </c>
@@ -9082,7 +9151,7 @@
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>431</v>
+        <v>338</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
@@ -9094,19 +9163,19 @@
         <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>435</v>
+        <v>129</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>436</v>
+        <v>78</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
@@ -9114,18 +9183,18 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>438</v>
+        <v>78</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>78</v>
@@ -9137,17 +9206,15 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>78</v>
@@ -9196,13 +9263,13 @@
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>78</v>
@@ -9214,7 +9281,7 @@
         <v>78</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>78</v>
@@ -9228,7 +9295,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9239,7 +9306,7 @@
         <v>79</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>78</v>
@@ -9251,16 +9318,16 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>445</v>
+        <v>186</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9286,13 +9353,13 @@
         <v>78</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>78</v>
+        <v>440</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>78</v>
+        <v>441</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>78</v>
@@ -9310,13 +9377,13 @@
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>78</v>
@@ -9328,15 +9395,471 @@
         <v>78</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK67" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AL66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN66" t="s" s="2">
+      <c r="AL67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>78</v>
       </c>
     </row>
